--- a/data/pca/factorExposure/factorExposure_2011-08-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02236375346344505</v>
+        <v>0.01753543180901913</v>
       </c>
       <c r="C2">
-        <v>0.01216634355698082</v>
+        <v>-0.007124684355778085</v>
       </c>
       <c r="D2">
-        <v>0.02232209086225321</v>
+        <v>0.02312639159353039</v>
       </c>
       <c r="E2">
-        <v>-0.06476677637148105</v>
+        <v>0.03755540726261148</v>
       </c>
       <c r="F2">
-        <v>0.001025622785212366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.003442610111920322</v>
+      </c>
+      <c r="G2">
+        <v>-0.02067454322065985</v>
+      </c>
+      <c r="H2">
+        <v>-0.01473236426368861</v>
+      </c>
+      <c r="I2">
+        <v>0.0204792459173699</v>
+      </c>
+      <c r="J2">
+        <v>-0.04982076016090146</v>
+      </c>
+      <c r="K2">
+        <v>0.06385542339497009</v>
+      </c>
+      <c r="L2">
+        <v>-0.02367592009658977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.07128300448769824</v>
+        <v>0.09274939594315625</v>
       </c>
       <c r="C4">
-        <v>0.04177056966147527</v>
+        <v>-0.05518445478114859</v>
       </c>
       <c r="D4">
-        <v>0.04456253008199355</v>
+        <v>0.01600536531192068</v>
       </c>
       <c r="E4">
-        <v>-0.02259473309038285</v>
+        <v>0.0440618749417829</v>
       </c>
       <c r="F4">
-        <v>-0.0387204993095908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0847492513733925</v>
+      </c>
+      <c r="G4">
+        <v>-0.0427025251571153</v>
+      </c>
+      <c r="H4">
+        <v>-0.008556626808052598</v>
+      </c>
+      <c r="I4">
+        <v>-0.07686227766911388</v>
+      </c>
+      <c r="J4">
+        <v>0.033251251350803</v>
+      </c>
+      <c r="K4">
+        <v>-0.02870919059615201</v>
+      </c>
+      <c r="L4">
+        <v>0.0381284334226016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1248443232640404</v>
+        <v>0.1313879602152513</v>
       </c>
       <c r="C6">
-        <v>0.00838293371808088</v>
+        <v>-0.02438735006371364</v>
       </c>
       <c r="D6">
-        <v>0.04164040357079677</v>
+        <v>0.04898361892918655</v>
       </c>
       <c r="E6">
-        <v>-0.07593272655190424</v>
+        <v>0.01815919017872209</v>
       </c>
       <c r="F6">
-        <v>-0.04745830623144971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.05704087839707561</v>
+      </c>
+      <c r="G6">
+        <v>-0.05505175474076233</v>
+      </c>
+      <c r="H6">
+        <v>0.1632164937258663</v>
+      </c>
+      <c r="I6">
+        <v>-0.03058899184833534</v>
+      </c>
+      <c r="J6">
+        <v>0.4554033086925976</v>
+      </c>
+      <c r="K6">
+        <v>0.05239733154643444</v>
+      </c>
+      <c r="L6">
+        <v>-0.06144778177714816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.06486892739379296</v>
+        <v>0.06772902053780289</v>
       </c>
       <c r="C7">
-        <v>0.0156434807184695</v>
+        <v>-0.05265067460547879</v>
       </c>
       <c r="D7">
-        <v>0.04539698819881612</v>
+        <v>0.03701629567264306</v>
       </c>
       <c r="E7">
-        <v>-0.05764023301566257</v>
+        <v>0.03922225535097068</v>
       </c>
       <c r="F7">
-        <v>-0.02468063630545238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04282595920308886</v>
+      </c>
+      <c r="G7">
+        <v>0.006131396540089462</v>
+      </c>
+      <c r="H7">
+        <v>-0.0003495218655545545</v>
+      </c>
+      <c r="I7">
+        <v>-0.04323040217340813</v>
+      </c>
+      <c r="J7">
+        <v>-0.05070991111598164</v>
+      </c>
+      <c r="K7">
+        <v>-0.04096403897988622</v>
+      </c>
+      <c r="L7">
+        <v>0.05106554306934513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03111271967990051</v>
+        <v>0.03644506057934478</v>
       </c>
       <c r="C8">
-        <v>0.03682103185496364</v>
+        <v>-0.01535896125200571</v>
       </c>
       <c r="D8">
-        <v>0.0007526594532688649</v>
+        <v>-0.008053908042919885</v>
       </c>
       <c r="E8">
-        <v>-0.05000348131293127</v>
+        <v>0.06920567784590184</v>
       </c>
       <c r="F8">
-        <v>-0.04811744540915804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03543757196006919</v>
+      </c>
+      <c r="G8">
+        <v>-0.06465217069682874</v>
+      </c>
+      <c r="H8">
+        <v>0.01469866961948831</v>
+      </c>
+      <c r="I8">
+        <v>-0.09313809076441286</v>
+      </c>
+      <c r="J8">
+        <v>0.02479807338633594</v>
+      </c>
+      <c r="K8">
+        <v>-0.05899226754151671</v>
+      </c>
+      <c r="L8">
+        <v>0.01848109403036799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07695291414765165</v>
+        <v>0.08509104335939097</v>
       </c>
       <c r="C9">
-        <v>0.05521199925329676</v>
+        <v>-0.05584011824271713</v>
       </c>
       <c r="D9">
-        <v>0.0466729986910735</v>
+        <v>0.01658666257720685</v>
       </c>
       <c r="E9">
-        <v>-0.02655966443382625</v>
+        <v>0.03315318192131515</v>
       </c>
       <c r="F9">
-        <v>-0.02568681542179285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.06834386534948342</v>
+      </c>
+      <c r="G9">
+        <v>-0.05245955766794957</v>
+      </c>
+      <c r="H9">
+        <v>-0.007266669617711311</v>
+      </c>
+      <c r="I9">
+        <v>-0.08395968588952409</v>
+      </c>
+      <c r="J9">
+        <v>0.02117787853574854</v>
+      </c>
+      <c r="K9">
+        <v>-0.02040810719321122</v>
+      </c>
+      <c r="L9">
+        <v>0.00772038339021964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.03101119045013271</v>
+        <v>0.08796896250849244</v>
       </c>
       <c r="C10">
-        <v>-0.1451042475148498</v>
+        <v>0.1811962033769381</v>
       </c>
       <c r="D10">
-        <v>-0.03109822847486638</v>
+        <v>0.002278293108834972</v>
       </c>
       <c r="E10">
-        <v>-0.07142252800869593</v>
+        <v>0.05503952652287618</v>
       </c>
       <c r="F10">
-        <v>-0.03872350924146529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0185584184310391</v>
+      </c>
+      <c r="G10">
+        <v>0.04164188050588017</v>
+      </c>
+      <c r="H10">
+        <v>0.0127860117962349</v>
+      </c>
+      <c r="I10">
+        <v>0.02190678806325368</v>
+      </c>
+      <c r="J10">
+        <v>-0.03422118295842142</v>
+      </c>
+      <c r="K10">
+        <v>0.02148768183319671</v>
+      </c>
+      <c r="L10">
+        <v>0.008956066413915574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07151677533876531</v>
+        <v>0.06968987990095418</v>
       </c>
       <c r="C11">
-        <v>0.05825514962117525</v>
+        <v>-0.05799722923014911</v>
       </c>
       <c r="D11">
-        <v>0.05845984508910015</v>
+        <v>0.03129715589913169</v>
       </c>
       <c r="E11">
-        <v>-0.03566354774057528</v>
+        <v>0.0184420934898073</v>
       </c>
       <c r="F11">
-        <v>0.008329225604817976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.04871554738538185</v>
+      </c>
+      <c r="G11">
+        <v>-0.07426302983928944</v>
+      </c>
+      <c r="H11">
+        <v>-0.01242052549644304</v>
+      </c>
+      <c r="I11">
+        <v>-0.0713270449347725</v>
+      </c>
+      <c r="J11">
+        <v>-0.08170907244822143</v>
+      </c>
+      <c r="K11">
+        <v>0.01540611067835148</v>
+      </c>
+      <c r="L11">
+        <v>-0.03527275321539604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06935125691807953</v>
+        <v>0.07091230549827103</v>
       </c>
       <c r="C12">
-        <v>0.0350219813649502</v>
+        <v>-0.05039374152777483</v>
       </c>
       <c r="D12">
-        <v>0.04108375715161186</v>
+        <v>0.009323229818133223</v>
       </c>
       <c r="E12">
-        <v>-0.02244356619646914</v>
+        <v>0.01854521503994182</v>
       </c>
       <c r="F12">
-        <v>-0.01199391693658781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.04609192830346338</v>
+      </c>
+      <c r="G12">
+        <v>-0.07031819911864549</v>
+      </c>
+      <c r="H12">
+        <v>-0.006428412638276499</v>
+      </c>
+      <c r="I12">
+        <v>-0.09043006451379219</v>
+      </c>
+      <c r="J12">
+        <v>-0.0622308845935137</v>
+      </c>
+      <c r="K12">
+        <v>0.02044579531350893</v>
+      </c>
+      <c r="L12">
+        <v>0.00893866904265511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.07566743124348278</v>
+        <v>0.06229972191487566</v>
       </c>
       <c r="C13">
-        <v>0.02866275808414178</v>
+        <v>-0.03960065709001846</v>
       </c>
       <c r="D13">
-        <v>0.007947283682967413</v>
+        <v>-0.01788233636002275</v>
       </c>
       <c r="E13">
-        <v>-0.02574053313287219</v>
+        <v>0.0315339321651313</v>
       </c>
       <c r="F13">
-        <v>-0.01731516588115598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.00651644814594182</v>
+      </c>
+      <c r="G13">
+        <v>-0.03589532375585112</v>
+      </c>
+      <c r="H13">
+        <v>-0.004979307928804251</v>
+      </c>
+      <c r="I13">
+        <v>-0.06780176140224972</v>
+      </c>
+      <c r="J13">
+        <v>-0.00491930361728133</v>
+      </c>
+      <c r="K13">
+        <v>-0.05675140559291237</v>
+      </c>
+      <c r="L13">
+        <v>0.05925395914499001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.03553215239664547</v>
+        <v>0.04376578071499472</v>
       </c>
       <c r="C14">
-        <v>-0.001304721698288239</v>
+        <v>-0.01471340713163538</v>
       </c>
       <c r="D14">
-        <v>0.04325881181255218</v>
+        <v>0.02132729559848038</v>
       </c>
       <c r="E14">
-        <v>-0.008647647447944556</v>
+        <v>0.006212009053114132</v>
       </c>
       <c r="F14">
-        <v>-0.01654118187495589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.05782568785420183</v>
+      </c>
+      <c r="G14">
+        <v>-0.0279968394657933</v>
+      </c>
+      <c r="H14">
+        <v>-0.04153552803599091</v>
+      </c>
+      <c r="I14">
+        <v>-0.06261112762621805</v>
+      </c>
+      <c r="J14">
+        <v>0.0309377345682325</v>
+      </c>
+      <c r="K14">
+        <v>-0.04159839540398853</v>
+      </c>
+      <c r="L14">
+        <v>0.006501359399996643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.05211356998671558</v>
+        <v>0.04059578162579786</v>
       </c>
       <c r="C15">
-        <v>0.01109255254269264</v>
+        <v>-0.01702242341171143</v>
       </c>
       <c r="D15">
-        <v>-0.0001372536373337219</v>
+        <v>-0.02350210598340289</v>
       </c>
       <c r="E15">
-        <v>-0.006825325330868006</v>
+        <v>0.004082552929200477</v>
       </c>
       <c r="F15">
-        <v>-0.03303249415054089</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.01979559065308779</v>
+      </c>
+      <c r="G15">
+        <v>-0.01334010079652746</v>
+      </c>
+      <c r="H15">
+        <v>-0.008481587049171749</v>
+      </c>
+      <c r="I15">
+        <v>-0.0256870865856773</v>
+      </c>
+      <c r="J15">
+        <v>0.04748704463918762</v>
+      </c>
+      <c r="K15">
+        <v>-0.05371750027501034</v>
+      </c>
+      <c r="L15">
+        <v>0.02679945693533649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.0595284541073159</v>
+        <v>0.07011530123165841</v>
       </c>
       <c r="C16">
-        <v>0.05404240582699291</v>
+        <v>-0.06221012149285919</v>
       </c>
       <c r="D16">
-        <v>0.05185833420298201</v>
+        <v>0.01898337949447682</v>
       </c>
       <c r="E16">
-        <v>-0.01749469291819154</v>
+        <v>0.01758543577787004</v>
       </c>
       <c r="F16">
-        <v>-0.02030105540166997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0596996755833889</v>
+      </c>
+      <c r="G16">
+        <v>-0.04772463889322688</v>
+      </c>
+      <c r="H16">
+        <v>-0.01572292955492278</v>
+      </c>
+      <c r="I16">
+        <v>-0.07125671602007119</v>
+      </c>
+      <c r="J16">
+        <v>-0.05896881914540385</v>
+      </c>
+      <c r="K16">
+        <v>0.0141226940520995</v>
+      </c>
+      <c r="L16">
+        <v>-0.02413162262454461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.06032631951711596</v>
+        <v>0.05430706267799111</v>
       </c>
       <c r="C20">
-        <v>0.04614333243874505</v>
+        <v>-0.0398653344991381</v>
       </c>
       <c r="D20">
-        <v>0.01480434168485993</v>
+        <v>0.0122707894105969</v>
       </c>
       <c r="E20">
-        <v>-0.03079026373153334</v>
+        <v>0.0236714367743063</v>
       </c>
       <c r="F20">
-        <v>-0.01689089149702796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01361868209180946</v>
+      </c>
+      <c r="G20">
+        <v>-0.05632382703864867</v>
+      </c>
+      <c r="H20">
+        <v>-0.02803843752094094</v>
+      </c>
+      <c r="I20">
+        <v>-0.1097409017501774</v>
+      </c>
+      <c r="J20">
+        <v>-0.01199863096943801</v>
+      </c>
+      <c r="K20">
+        <v>-0.008143624342414441</v>
+      </c>
+      <c r="L20">
+        <v>0.0475101577947299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.03047654818572646</v>
+        <v>0.02622982527965982</v>
       </c>
       <c r="C21">
-        <v>0.02876558824082777</v>
+        <v>-0.01995879227289657</v>
       </c>
       <c r="D21">
-        <v>-0.03990257053277765</v>
+        <v>-0.03899462382117274</v>
       </c>
       <c r="E21">
-        <v>-0.01412088136504303</v>
+        <v>0.02538059768498445</v>
       </c>
       <c r="F21">
-        <v>-0.0730186327998906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.0006696152783506542</v>
+      </c>
+      <c r="G21">
+        <v>-0.01896893590077024</v>
+      </c>
+      <c r="H21">
+        <v>0.06295825853676416</v>
+      </c>
+      <c r="I21">
+        <v>-0.03116068493243366</v>
+      </c>
+      <c r="J21">
+        <v>0.07119783514171078</v>
+      </c>
+      <c r="K21">
+        <v>-0.05418483697240428</v>
+      </c>
+      <c r="L21">
+        <v>0.01491567294066795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1090464833279114</v>
+        <v>0.08431569208527348</v>
       </c>
       <c r="C22">
-        <v>0.1261623834392709</v>
+        <v>-0.09429462919517018</v>
       </c>
       <c r="D22">
-        <v>-0.09817762364970255</v>
+        <v>-0.4724225281571431</v>
       </c>
       <c r="E22">
-        <v>0.01723129145717505</v>
+        <v>0.251971455127049</v>
       </c>
       <c r="F22">
-        <v>-0.430851998635845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.2027871102347215</v>
+      </c>
+      <c r="G22">
+        <v>0.2975532912084604</v>
+      </c>
+      <c r="H22">
+        <v>0.01806996361901464</v>
+      </c>
+      <c r="I22">
+        <v>0.1930235351227094</v>
+      </c>
+      <c r="J22">
+        <v>0.0181100559436636</v>
+      </c>
+      <c r="K22">
+        <v>0.05750593655296367</v>
+      </c>
+      <c r="L22">
+        <v>0.03333393072012523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.1101573631790548</v>
+        <v>0.08527665900984688</v>
       </c>
       <c r="C23">
-        <v>0.1253699761084185</v>
+        <v>-0.09475428776929325</v>
       </c>
       <c r="D23">
-        <v>-0.09590634201890631</v>
+        <v>-0.4734072051007678</v>
       </c>
       <c r="E23">
-        <v>0.01623278739074055</v>
+        <v>0.2538496478033519</v>
       </c>
       <c r="F23">
-        <v>-0.432761485286736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.2078943451634546</v>
+      </c>
+      <c r="G23">
+        <v>0.2931357249461927</v>
+      </c>
+      <c r="H23">
+        <v>0.01701479538787135</v>
+      </c>
+      <c r="I23">
+        <v>0.1942233903158271</v>
+      </c>
+      <c r="J23">
+        <v>0.0237536031687836</v>
+      </c>
+      <c r="K23">
+        <v>0.05871822633994147</v>
+      </c>
+      <c r="L23">
+        <v>0.02993958289288556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07860679214305341</v>
+        <v>0.07811112543276127</v>
       </c>
       <c r="C24">
-        <v>0.05106675149071181</v>
+        <v>-0.0607932044842036</v>
       </c>
       <c r="D24">
-        <v>0.04664220271805831</v>
+        <v>0.01349696511332983</v>
       </c>
       <c r="E24">
-        <v>-0.03889558158631268</v>
+        <v>0.02827915924584942</v>
       </c>
       <c r="F24">
-        <v>-0.02896715499188489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.06021170572815285</v>
+      </c>
+      <c r="G24">
+        <v>-0.07064495395408853</v>
+      </c>
+      <c r="H24">
+        <v>-0.0005474121010887124</v>
+      </c>
+      <c r="I24">
+        <v>-0.07830068525941804</v>
+      </c>
+      <c r="J24">
+        <v>-0.05392109824809928</v>
+      </c>
+      <c r="K24">
+        <v>0.02244716699772072</v>
+      </c>
+      <c r="L24">
+        <v>-0.01233738293801704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.0755724161054811</v>
+        <v>0.0759097050994449</v>
       </c>
       <c r="C25">
-        <v>0.03318178757026151</v>
+        <v>-0.04158994330122177</v>
       </c>
       <c r="D25">
-        <v>0.04497369355215131</v>
+        <v>0.01928308564404181</v>
       </c>
       <c r="E25">
-        <v>-0.04754346888192216</v>
+        <v>0.02863729948022199</v>
       </c>
       <c r="F25">
-        <v>-0.04229725991839915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.06297091190882802</v>
+      </c>
+      <c r="G25">
+        <v>-0.06697901744463658</v>
+      </c>
+      <c r="H25">
+        <v>-0.02112914943887374</v>
+      </c>
+      <c r="I25">
+        <v>-0.09257488904225872</v>
+      </c>
+      <c r="J25">
+        <v>-0.06350742816416201</v>
+      </c>
+      <c r="K25">
+        <v>0.04297359849919138</v>
+      </c>
+      <c r="L25">
+        <v>-0.02320172982885561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05209668568922089</v>
+        <v>0.0455534758670299</v>
       </c>
       <c r="C26">
-        <v>0.02525075753314615</v>
+        <v>-0.0246560256221639</v>
       </c>
       <c r="D26">
-        <v>0.01057503437290623</v>
+        <v>-0.01954070997919084</v>
       </c>
       <c r="E26">
-        <v>-0.03964830697624385</v>
+        <v>0.0147341321216675</v>
       </c>
       <c r="F26">
-        <v>0.01105830348606024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01254439652320144</v>
+      </c>
+      <c r="G26">
+        <v>-0.02727078419731782</v>
+      </c>
+      <c r="H26">
+        <v>-0.01350880793282473</v>
+      </c>
+      <c r="I26">
+        <v>-0.04121046850395492</v>
+      </c>
+      <c r="J26">
+        <v>0.03910938713327687</v>
+      </c>
+      <c r="K26">
+        <v>-0.1231597249138814</v>
+      </c>
+      <c r="L26">
+        <v>0.02935119856453913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.06890370629591618</v>
+        <v>0.1117012161462875</v>
       </c>
       <c r="C28">
-        <v>-0.2927147783281971</v>
+        <v>0.2958129849971663</v>
       </c>
       <c r="D28">
-        <v>-0.04538316563103561</v>
+        <v>-0.01536425040247393</v>
       </c>
       <c r="E28">
-        <v>-0.08118403475386837</v>
+        <v>0.03736408058915602</v>
       </c>
       <c r="F28">
-        <v>0.002407444350683424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.004382962502220811</v>
+      </c>
+      <c r="G28">
+        <v>0.001297198020997284</v>
+      </c>
+      <c r="H28">
+        <v>0.03018034021177188</v>
+      </c>
+      <c r="I28">
+        <v>0.02375886792693895</v>
+      </c>
+      <c r="J28">
+        <v>0.01240927435481989</v>
+      </c>
+      <c r="K28">
+        <v>-0.06176091495133691</v>
+      </c>
+      <c r="L28">
+        <v>0.01646421975120047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05003145659191058</v>
+        <v>0.04846547097683179</v>
       </c>
       <c r="C29">
-        <v>-0.001783391131147849</v>
+        <v>-0.01677911820313234</v>
       </c>
       <c r="D29">
-        <v>0.02575475124149022</v>
+        <v>0.008256053870049889</v>
       </c>
       <c r="E29">
-        <v>-0.01457144510269752</v>
+        <v>0.02046946146409153</v>
       </c>
       <c r="F29">
-        <v>-0.04001816137986751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04509827918184601</v>
+      </c>
+      <c r="G29">
+        <v>-0.0300609706300585</v>
+      </c>
+      <c r="H29">
+        <v>-0.04468908212126082</v>
+      </c>
+      <c r="I29">
+        <v>-0.04669706527999846</v>
+      </c>
+      <c r="J29">
+        <v>0.0202961871543939</v>
+      </c>
+      <c r="K29">
+        <v>-0.02780763955632553</v>
+      </c>
+      <c r="L29">
+        <v>0.01278087515062325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1513645384006401</v>
+        <v>0.1216135106145315</v>
       </c>
       <c r="C30">
-        <v>0.06171986117476502</v>
+        <v>-0.07111186995568468</v>
       </c>
       <c r="D30">
-        <v>0.0776256636922997</v>
+        <v>-0.01894832341334189</v>
       </c>
       <c r="E30">
-        <v>-0.07862700336565741</v>
+        <v>0.08091241403501577</v>
       </c>
       <c r="F30">
-        <v>-0.07815237572880861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1119551266463997</v>
+      </c>
+      <c r="G30">
+        <v>-0.08992856317586367</v>
+      </c>
+      <c r="H30">
+        <v>0.05221994397181815</v>
+      </c>
+      <c r="I30">
+        <v>-0.2042871842057313</v>
+      </c>
+      <c r="J30">
+        <v>-0.02582871146447909</v>
+      </c>
+      <c r="K30">
+        <v>0.02934202816856525</v>
+      </c>
+      <c r="L30">
+        <v>0.476871961911969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05724812414827755</v>
+        <v>0.04371904911840168</v>
       </c>
       <c r="C31">
-        <v>0.0112275195808883</v>
+        <v>-0.0412844812121592</v>
       </c>
       <c r="D31">
-        <v>0.02673401475245006</v>
+        <v>-0.007460901619778346</v>
       </c>
       <c r="E31">
-        <v>-0.002342940039842808</v>
+        <v>-0.003721360312847572</v>
       </c>
       <c r="F31">
-        <v>-0.005157906188103175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01995753441441436</v>
+      </c>
+      <c r="G31">
+        <v>-0.005168316464521202</v>
+      </c>
+      <c r="H31">
+        <v>-0.05459754700689793</v>
+      </c>
+      <c r="I31">
+        <v>-0.04484862111205584</v>
+      </c>
+      <c r="J31">
+        <v>0.01996931953301856</v>
+      </c>
+      <c r="K31">
+        <v>-0.007153789264301486</v>
+      </c>
+      <c r="L31">
+        <v>0.01825930351177723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.04780996844807453</v>
+        <v>0.05056060802897116</v>
       </c>
       <c r="C32">
-        <v>0.0164840556566596</v>
+        <v>-0.002290407770310365</v>
       </c>
       <c r="D32">
-        <v>-0.0002645956072656064</v>
+        <v>-0.04390886090976647</v>
       </c>
       <c r="E32">
-        <v>0.006392159593680976</v>
+        <v>0.0228423596572625</v>
       </c>
       <c r="F32">
-        <v>-0.07268240115908896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04649598373098202</v>
+      </c>
+      <c r="G32">
+        <v>-0.002338753963185232</v>
+      </c>
+      <c r="H32">
+        <v>-0.005775224616267373</v>
+      </c>
+      <c r="I32">
+        <v>-0.01238881586837783</v>
+      </c>
+      <c r="J32">
+        <v>0.005975582622726516</v>
+      </c>
+      <c r="K32">
+        <v>-0.097505750797114</v>
+      </c>
+      <c r="L32">
+        <v>0.08670614955569274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1055744485587317</v>
+        <v>0.1042393350997907</v>
       </c>
       <c r="C33">
-        <v>0.03405153255456155</v>
+        <v>-0.05701282891005584</v>
       </c>
       <c r="D33">
-        <v>0.05507916718726547</v>
+        <v>-0.003299932556215669</v>
       </c>
       <c r="E33">
-        <v>-0.01599404843718469</v>
+        <v>-0.01257861055464077</v>
       </c>
       <c r="F33">
-        <v>0.001238125151363197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.05226720422941385</v>
+      </c>
+      <c r="G33">
+        <v>-0.03646393444603931</v>
+      </c>
+      <c r="H33">
+        <v>-0.04076495748570549</v>
+      </c>
+      <c r="I33">
+        <v>-0.06857200475505947</v>
+      </c>
+      <c r="J33">
+        <v>0.02128464613173346</v>
+      </c>
+      <c r="K33">
+        <v>-0.02087606267117989</v>
+      </c>
+      <c r="L33">
+        <v>0.01112916740619203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.0623727158981131</v>
+        <v>0.0647934381380037</v>
       </c>
       <c r="C34">
-        <v>0.05446403785577671</v>
+        <v>-0.05039793600416207</v>
       </c>
       <c r="D34">
-        <v>0.03138163949570589</v>
+        <v>0.01671050992356954</v>
       </c>
       <c r="E34">
-        <v>-0.02309871964830926</v>
+        <v>0.01589153062144314</v>
       </c>
       <c r="F34">
-        <v>-0.03680899031469625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.04422267719613258</v>
+      </c>
+      <c r="G34">
+        <v>-0.06310870714008023</v>
+      </c>
+      <c r="H34">
+        <v>-0.02413963195733453</v>
+      </c>
+      <c r="I34">
+        <v>-0.07456115229101209</v>
+      </c>
+      <c r="J34">
+        <v>-0.04929487078250781</v>
+      </c>
+      <c r="K34">
+        <v>0.02656694820086042</v>
+      </c>
+      <c r="L34">
+        <v>-0.04715769199728124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04425061025085831</v>
+        <v>0.03509057732123732</v>
       </c>
       <c r="C35">
-        <v>0.01464902433304203</v>
+        <v>-0.02272452741779267</v>
       </c>
       <c r="D35">
-        <v>0.01410820342691044</v>
+        <v>-0.001436877017614775</v>
       </c>
       <c r="E35">
-        <v>-0.003951280929625033</v>
+        <v>-0.002012101897303037</v>
       </c>
       <c r="F35">
-        <v>-0.01551661363197644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01566143676636874</v>
+      </c>
+      <c r="G35">
+        <v>2.623590192069443e-05</v>
+      </c>
+      <c r="H35">
+        <v>-0.02467053783124646</v>
+      </c>
+      <c r="I35">
+        <v>-0.06575978107654559</v>
+      </c>
+      <c r="J35">
+        <v>-0.01690637744218125</v>
+      </c>
+      <c r="K35">
+        <v>-0.006745280807268984</v>
+      </c>
+      <c r="L35">
+        <v>0.03170690543231432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03882807100210579</v>
+        <v>0.03386326948199577</v>
       </c>
       <c r="C36">
-        <v>0.0176733067411481</v>
+        <v>-0.01729555970139274</v>
       </c>
       <c r="D36">
-        <v>0.009773514271704222</v>
+        <v>-0.01049072686788026</v>
       </c>
       <c r="E36">
-        <v>-0.03423722516241977</v>
+        <v>0.02635422539049125</v>
       </c>
       <c r="F36">
-        <v>-0.02313357714735881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02555300082972769</v>
+      </c>
+      <c r="G36">
+        <v>-0.03734592302858594</v>
+      </c>
+      <c r="H36">
+        <v>-0.01324524476890232</v>
+      </c>
+      <c r="I36">
+        <v>-0.06610146611485113</v>
+      </c>
+      <c r="J36">
+        <v>0.01553192193818763</v>
+      </c>
+      <c r="K36">
+        <v>-0.02757674853191803</v>
+      </c>
+      <c r="L36">
+        <v>0.01667541577526391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.06035027767773829</v>
+        <v>0.04675790123426846</v>
       </c>
       <c r="C38">
-        <v>0.01946380417482451</v>
+        <v>-0.04439264688752323</v>
       </c>
       <c r="D38">
-        <v>-0.006972575330542302</v>
+        <v>-0.01878063641376837</v>
       </c>
       <c r="E38">
-        <v>0.01195552670605908</v>
+        <v>0.01663899553975458</v>
       </c>
       <c r="F38">
-        <v>-0.07248156665749948</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.004795184657654439</v>
+      </c>
+      <c r="G38">
+        <v>0.02524195000119414</v>
+      </c>
+      <c r="H38">
+        <v>-0.01256307185645916</v>
+      </c>
+      <c r="I38">
+        <v>0.114159076890376</v>
+      </c>
+      <c r="J38">
+        <v>-0.022066614075747</v>
+      </c>
+      <c r="K38">
+        <v>-0.07729733498398872</v>
+      </c>
+      <c r="L38">
+        <v>0.05980968277764769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09622697986231096</v>
+        <v>0.09541698881652118</v>
       </c>
       <c r="C39">
-        <v>0.05166269722622627</v>
+        <v>-0.06059531887237504</v>
       </c>
       <c r="D39">
-        <v>0.06786324453354335</v>
+        <v>0.01171059008220003</v>
       </c>
       <c r="E39">
-        <v>-0.01185379322668286</v>
+        <v>0.02037408799270491</v>
       </c>
       <c r="F39">
-        <v>-0.02675978976830047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.06498665483765544</v>
+      </c>
+      <c r="G39">
+        <v>-0.05801427219678045</v>
+      </c>
+      <c r="H39">
+        <v>-0.006662812814040058</v>
+      </c>
+      <c r="I39">
+        <v>-0.09623917453286304</v>
+      </c>
+      <c r="J39">
+        <v>-0.1452931182784154</v>
+      </c>
+      <c r="K39">
+        <v>0.02406585675183856</v>
+      </c>
+      <c r="L39">
+        <v>0.08236133292369727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.07956921441894294</v>
+        <v>0.04421882721424845</v>
       </c>
       <c r="C40">
-        <v>0.0217107638142372</v>
+        <v>-0.0539576443833772</v>
       </c>
       <c r="D40">
-        <v>0.04907155931962395</v>
+        <v>-0.0570448111115904</v>
       </c>
       <c r="E40">
-        <v>-0.03230057986028564</v>
+        <v>0.01520781809567045</v>
       </c>
       <c r="F40">
-        <v>-0.1533228499068993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.06585838982589726</v>
+      </c>
+      <c r="G40">
+        <v>-0.08451851597583286</v>
+      </c>
+      <c r="H40">
+        <v>0.09136538546487422</v>
+      </c>
+      <c r="I40">
+        <v>-0.1011878435954773</v>
+      </c>
+      <c r="J40">
+        <v>-0.1684738487107292</v>
+      </c>
+      <c r="K40">
+        <v>-0.02444662275956622</v>
+      </c>
+      <c r="L40">
+        <v>0.1235993337170877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.06222087316675556</v>
+        <v>0.04556820291430816</v>
       </c>
       <c r="C41">
-        <v>0.04145371596492043</v>
+        <v>-0.03637911059190512</v>
       </c>
       <c r="D41">
-        <v>0.03233961393457814</v>
+        <v>0.01822944723704284</v>
       </c>
       <c r="E41">
-        <v>0.001217382211182509</v>
+        <v>-0.01066412879641979</v>
       </c>
       <c r="F41">
-        <v>-0.008721522364589175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.001021363764128821</v>
+      </c>
+      <c r="G41">
+        <v>-0.02868390504345701</v>
+      </c>
+      <c r="H41">
+        <v>-0.03477299049622937</v>
+      </c>
+      <c r="I41">
+        <v>-0.009888993886516118</v>
+      </c>
+      <c r="J41">
+        <v>-0.02332757904230593</v>
+      </c>
+      <c r="K41">
+        <v>-0.02988494514753312</v>
+      </c>
+      <c r="L41">
+        <v>0.03227589618240991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06219730627980617</v>
+        <v>0.0580610990369223</v>
       </c>
       <c r="C43">
-        <v>0.02437918348124481</v>
+        <v>-0.04361289180738733</v>
       </c>
       <c r="D43">
-        <v>0.02198734891301664</v>
+        <v>0.005701488863727314</v>
       </c>
       <c r="E43">
-        <v>-0.02131747275132963</v>
+        <v>0.02071881237909088</v>
       </c>
       <c r="F43">
-        <v>-0.007565887145596128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01889439015983905</v>
+      </c>
+      <c r="G43">
+        <v>-0.01578527822083164</v>
+      </c>
+      <c r="H43">
+        <v>-0.0537758869199064</v>
+      </c>
+      <c r="I43">
+        <v>-0.01606328297740929</v>
+      </c>
+      <c r="J43">
+        <v>-0.01594586919112796</v>
+      </c>
+      <c r="K43">
+        <v>-0.01580559748454605</v>
+      </c>
+      <c r="L43">
+        <v>-0.003309106141058449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.07917035324622239</v>
+        <v>0.08637647019839093</v>
       </c>
       <c r="C44">
-        <v>0.03604327256847806</v>
+        <v>-0.05171091670063755</v>
       </c>
       <c r="D44">
-        <v>-0.01862696428476605</v>
+        <v>-0.02065256565834045</v>
       </c>
       <c r="E44">
-        <v>-0.0868671028205743</v>
+        <v>0.1185460255015442</v>
       </c>
       <c r="F44">
-        <v>-0.1182417730856777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0591650104151728</v>
+      </c>
+      <c r="G44">
+        <v>-0.09163051994015892</v>
+      </c>
+      <c r="H44">
+        <v>-0.02859236922957312</v>
+      </c>
+      <c r="I44">
+        <v>-0.1206304911567192</v>
+      </c>
+      <c r="J44">
+        <v>-0.06877861839836387</v>
+      </c>
+      <c r="K44">
+        <v>-0.006764556879931096</v>
+      </c>
+      <c r="L44">
+        <v>-0.004917214479301448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.02674429663097808</v>
+        <v>0.04373210679572712</v>
       </c>
       <c r="C46">
-        <v>0.0287767879369461</v>
+        <v>-0.0342623175483488</v>
       </c>
       <c r="D46">
-        <v>0.01081151186108576</v>
+        <v>0.002163707517700849</v>
       </c>
       <c r="E46">
-        <v>-0.01976337621556815</v>
+        <v>0.03053485337699514</v>
       </c>
       <c r="F46">
-        <v>-0.04503762483802329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04092723987559482</v>
+      </c>
+      <c r="G46">
+        <v>-0.01155963056603652</v>
+      </c>
+      <c r="H46">
+        <v>-0.01976205927832676</v>
+      </c>
+      <c r="I46">
+        <v>-0.04328252400684203</v>
+      </c>
+      <c r="J46">
+        <v>0.03422702983051189</v>
+      </c>
+      <c r="K46">
+        <v>-0.0702182664538956</v>
+      </c>
+      <c r="L46">
+        <v>-0.0138400836872153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04179037496978098</v>
+        <v>0.04843776155619057</v>
       </c>
       <c r="C47">
-        <v>-0.00325817618259695</v>
+        <v>-0.01986382185667969</v>
       </c>
       <c r="D47">
-        <v>-0.009975004173566754</v>
+        <v>-0.02378210061405051</v>
       </c>
       <c r="E47">
-        <v>-0.01528073177049627</v>
+        <v>0.01391673800225746</v>
       </c>
       <c r="F47">
-        <v>-0.07039400933365533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02661231669679074</v>
+      </c>
+      <c r="G47">
+        <v>-0.008212225799178916</v>
+      </c>
+      <c r="H47">
+        <v>-0.03676719506878443</v>
+      </c>
+      <c r="I47">
+        <v>-0.0310927045525958</v>
+      </c>
+      <c r="J47">
+        <v>0.03080611496058898</v>
+      </c>
+      <c r="K47">
+        <v>0.01858778762014</v>
+      </c>
+      <c r="L47">
+        <v>0.001676379821031426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04614934702476653</v>
+        <v>0.04505654366877589</v>
       </c>
       <c r="C48">
-        <v>0.01804006896840663</v>
+        <v>-0.01641205851554896</v>
       </c>
       <c r="D48">
-        <v>0.02439794831236611</v>
+        <v>-0.02090785168497972</v>
       </c>
       <c r="E48">
-        <v>-0.02574969516721868</v>
+        <v>0.01600803494871638</v>
       </c>
       <c r="F48">
-        <v>-0.05721052844901665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.04066148746399244</v>
+      </c>
+      <c r="G48">
+        <v>-0.01484075177248698</v>
+      </c>
+      <c r="H48">
+        <v>0.003140854647963128</v>
+      </c>
+      <c r="I48">
+        <v>-0.06154112705506852</v>
+      </c>
+      <c r="J48">
+        <v>0.01766327681189467</v>
+      </c>
+      <c r="K48">
+        <v>-0.01058927746053609</v>
+      </c>
+      <c r="L48">
+        <v>0.03581083561112018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.1491486438279542</v>
+        <v>0.2073187282748267</v>
       </c>
       <c r="C49">
-        <v>0.02446699675838171</v>
+        <v>-0.02914761996709591</v>
       </c>
       <c r="D49">
-        <v>0.1163013047593817</v>
+        <v>0.1803624458819158</v>
       </c>
       <c r="E49">
-        <v>-0.03048532160676521</v>
+        <v>-0.04754346952838408</v>
       </c>
       <c r="F49">
-        <v>0.1130533811298614</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.005645979723947888</v>
+      </c>
+      <c r="G49">
+        <v>0.2015185550671941</v>
+      </c>
+      <c r="H49">
+        <v>0.190744015251932</v>
+      </c>
+      <c r="I49">
+        <v>0.0788130584296452</v>
+      </c>
+      <c r="J49">
+        <v>-0.1483383754700354</v>
+      </c>
+      <c r="K49">
+        <v>0.03631558576453114</v>
+      </c>
+      <c r="L49">
+        <v>-0.1491583577038407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.06558483769401147</v>
+        <v>0.05272878293877255</v>
       </c>
       <c r="C50">
-        <v>0.01909877236235529</v>
+        <v>-0.04070369261773729</v>
       </c>
       <c r="D50">
-        <v>0.02824934307486465</v>
+        <v>-0.006533996003756859</v>
       </c>
       <c r="E50">
-        <v>-0.003932357190316743</v>
+        <v>-0.005911773430457678</v>
       </c>
       <c r="F50">
-        <v>-0.02441511949078621</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03692600362986882</v>
+      </c>
+      <c r="G50">
+        <v>-0.0231436567313844</v>
+      </c>
+      <c r="H50">
+        <v>-0.05461661785496489</v>
+      </c>
+      <c r="I50">
+        <v>-0.02943583664723883</v>
+      </c>
+      <c r="J50">
+        <v>0.04428401490977876</v>
+      </c>
+      <c r="K50">
+        <v>-0.007617376484634813</v>
+      </c>
+      <c r="L50">
+        <v>0.03158262422056227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.04204118651978843</v>
+        <v>0.04081900713345583</v>
       </c>
       <c r="C51">
-        <v>0.008655713462756291</v>
+        <v>-0.008669638963835165</v>
       </c>
       <c r="D51">
-        <v>-0.005355631532124159</v>
+        <v>0.0003801436011643446</v>
       </c>
       <c r="E51">
-        <v>-0.001522532259159334</v>
+        <v>0.01854220691479115</v>
       </c>
       <c r="F51">
-        <v>-0.01057955434763292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.035238963938964</v>
+      </c>
+      <c r="G51">
+        <v>0.006041585325277269</v>
+      </c>
+      <c r="H51">
+        <v>0.01099683409664566</v>
+      </c>
+      <c r="I51">
+        <v>0.004561573255608199</v>
+      </c>
+      <c r="J51">
+        <v>-0.04833088499164474</v>
+      </c>
+      <c r="K51">
+        <v>0.0455310116920047</v>
+      </c>
+      <c r="L51">
+        <v>-0.04714491032819436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1496883076497857</v>
+        <v>0.1519156901973343</v>
       </c>
       <c r="C53">
-        <v>-0.02983757449715627</v>
+        <v>-0.02693180414409058</v>
       </c>
       <c r="D53">
-        <v>0.07989479247888152</v>
+        <v>0.06722874557392762</v>
       </c>
       <c r="E53">
-        <v>-0.006570614763903712</v>
+        <v>-0.0332116701980094</v>
       </c>
       <c r="F53">
-        <v>0.06639901661403294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02000061173354774</v>
+      </c>
+      <c r="G53">
+        <v>0.03159581349423447</v>
+      </c>
+      <c r="H53">
+        <v>-0.2377541135802727</v>
+      </c>
+      <c r="I53">
+        <v>0.07534042919005093</v>
+      </c>
+      <c r="J53">
+        <v>0.02958477557869536</v>
+      </c>
+      <c r="K53">
+        <v>0.03863609599820466</v>
+      </c>
+      <c r="L53">
+        <v>-0.04944351861428683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.06035997011440145</v>
+        <v>0.06076205057543726</v>
       </c>
       <c r="C54">
-        <v>0.02370764112342954</v>
+        <v>-0.02041308138153847</v>
       </c>
       <c r="D54">
-        <v>-0.0121539267737272</v>
+        <v>-0.02507075744252231</v>
       </c>
       <c r="E54">
-        <v>-0.04282468458838867</v>
+        <v>0.04390219876419579</v>
       </c>
       <c r="F54">
-        <v>-0.05845459474920172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.04817290653317934</v>
+      </c>
+      <c r="G54">
+        <v>-0.08544796273319023</v>
+      </c>
+      <c r="H54">
+        <v>-0.01806735093981628</v>
+      </c>
+      <c r="I54">
+        <v>-0.1054346137474507</v>
+      </c>
+      <c r="J54">
+        <v>0.0505676316034739</v>
+      </c>
+      <c r="K54">
+        <v>-0.05127877760111602</v>
+      </c>
+      <c r="L54">
+        <v>0.03627903066736574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09258487189275255</v>
+        <v>0.09274848693171203</v>
       </c>
       <c r="C55">
-        <v>-0.007902716296138455</v>
+        <v>-0.03148306215992763</v>
       </c>
       <c r="D55">
-        <v>0.05365954895786271</v>
+        <v>0.04763409737171313</v>
       </c>
       <c r="E55">
-        <v>-0.0235513332997997</v>
+        <v>-0.0005258901452218494</v>
       </c>
       <c r="F55">
-        <v>-0.002279623652406331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0269031510871023</v>
+      </c>
+      <c r="G55">
+        <v>-0.02781013434484308</v>
+      </c>
+      <c r="H55">
+        <v>-0.1633994713467881</v>
+      </c>
+      <c r="I55">
+        <v>0.009127286876239938</v>
+      </c>
+      <c r="J55">
+        <v>0.01721002281196018</v>
+      </c>
+      <c r="K55">
+        <v>0.01360859100924687</v>
+      </c>
+      <c r="L55">
+        <v>-0.07538812600752208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1490299293093278</v>
+        <v>0.1470138136100136</v>
       </c>
       <c r="C56">
-        <v>-0.03848452243242551</v>
+        <v>-0.04301710415936478</v>
       </c>
       <c r="D56">
-        <v>0.09331611044719069</v>
+        <v>0.06816215143350635</v>
       </c>
       <c r="E56">
-        <v>-0.04703098826532219</v>
+        <v>-0.008184097137182784</v>
       </c>
       <c r="F56">
-        <v>0.06959978011048853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03419917371535352</v>
+      </c>
+      <c r="G56">
+        <v>0.01044860232539822</v>
+      </c>
+      <c r="H56">
+        <v>-0.2417538447747895</v>
+      </c>
+      <c r="I56">
+        <v>0.09612426180995792</v>
+      </c>
+      <c r="J56">
+        <v>0.01614160962317165</v>
+      </c>
+      <c r="K56">
+        <v>0.02899561358708411</v>
+      </c>
+      <c r="L56">
+        <v>-0.004337324272787924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1089415580489746</v>
+        <v>0.06915128383603296</v>
       </c>
       <c r="C58">
-        <v>0.07053962842959155</v>
+        <v>-0.04845125298569831</v>
       </c>
       <c r="D58">
-        <v>-0.2618152457189433</v>
+        <v>-0.169824831207974</v>
       </c>
       <c r="E58">
-        <v>-0.1031006071558052</v>
+        <v>0.1126265774705234</v>
       </c>
       <c r="F58">
-        <v>-0.2185221193332153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.204158340760417</v>
+      </c>
+      <c r="G58">
+        <v>0.01258616424695837</v>
+      </c>
+      <c r="H58">
+        <v>0.1376627782855858</v>
+      </c>
+      <c r="I58">
+        <v>-0.4536420451782628</v>
+      </c>
+      <c r="J58">
+        <v>-0.02838445941690478</v>
+      </c>
+      <c r="K58">
+        <v>0.3816527351675225</v>
+      </c>
+      <c r="L58">
+        <v>0.08570677456867035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.172926358178869</v>
+        <v>0.1993011993889413</v>
       </c>
       <c r="C59">
-        <v>-0.4183532966455762</v>
+        <v>0.3258011270008456</v>
       </c>
       <c r="D59">
-        <v>-0.09553035605355685</v>
+        <v>-0.01857921431597648</v>
       </c>
       <c r="E59">
-        <v>-0.0897644685159603</v>
+        <v>0.02514720836231252</v>
       </c>
       <c r="F59">
-        <v>-0.03452495879877245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0507098136853775</v>
+      </c>
+      <c r="G59">
+        <v>-0.04855585359252163</v>
+      </c>
+      <c r="H59">
+        <v>-0.06270945026375964</v>
+      </c>
+      <c r="I59">
+        <v>0.05042885957039765</v>
+      </c>
+      <c r="J59">
+        <v>-0.05696185190408026</v>
+      </c>
+      <c r="K59">
+        <v>-0.01405386444632582</v>
+      </c>
+      <c r="L59">
+        <v>-0.01449950435879744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2263263769578151</v>
+        <v>0.2439971905441295</v>
       </c>
       <c r="C60">
-        <v>-0.01034447522597167</v>
+        <v>-0.06682614927920374</v>
       </c>
       <c r="D60">
-        <v>0.1015475713709059</v>
+        <v>0.1397332921013408</v>
       </c>
       <c r="E60">
-        <v>-0.06764074556444777</v>
+        <v>-0.008747044335131854</v>
       </c>
       <c r="F60">
-        <v>0.0241313020834876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.001671024224297773</v>
+      </c>
+      <c r="G60">
+        <v>0.05550179429119256</v>
+      </c>
+      <c r="H60">
+        <v>0.08633737612364895</v>
+      </c>
+      <c r="I60">
+        <v>0.1188290329911659</v>
+      </c>
+      <c r="J60">
+        <v>0.0724406479009536</v>
+      </c>
+      <c r="K60">
+        <v>0.1110716236911356</v>
+      </c>
+      <c r="L60">
+        <v>-0.07326945676450637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.07679157759540758</v>
+        <v>0.08410983594469212</v>
       </c>
       <c r="C61">
-        <v>0.02952968931960259</v>
+        <v>-0.0440122739509574</v>
       </c>
       <c r="D61">
-        <v>0.05407457265844989</v>
+        <v>0.02412352572238642</v>
       </c>
       <c r="E61">
-        <v>-0.01065787409519413</v>
+        <v>0.01987697259504284</v>
       </c>
       <c r="F61">
-        <v>-0.00685106523874358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0535687046552898</v>
+      </c>
+      <c r="G61">
+        <v>-0.06572839857322364</v>
+      </c>
+      <c r="H61">
+        <v>-0.05255076452623957</v>
+      </c>
+      <c r="I61">
+        <v>-0.05389081091061249</v>
+      </c>
+      <c r="J61">
+        <v>-0.07934918958653049</v>
+      </c>
+      <c r="K61">
+        <v>-0.001657414082952719</v>
+      </c>
+      <c r="L61">
+        <v>0.02458929517590146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1573479826286694</v>
+        <v>0.149556057109766</v>
       </c>
       <c r="C62">
-        <v>-0.00700988017715397</v>
+        <v>-0.05142468208178215</v>
       </c>
       <c r="D62">
-        <v>0.06493242609413624</v>
+        <v>0.05897348541204774</v>
       </c>
       <c r="E62">
-        <v>0.01060857394556412</v>
+        <v>-0.05231799376748678</v>
       </c>
       <c r="F62">
-        <v>0.1162432329078374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.008370986198575304</v>
+      </c>
+      <c r="G62">
+        <v>-0.01608769021450874</v>
+      </c>
+      <c r="H62">
+        <v>-0.2176023567834206</v>
+      </c>
+      <c r="I62">
+        <v>0.07691770338486739</v>
+      </c>
+      <c r="J62">
+        <v>0.06967637925321223</v>
+      </c>
+      <c r="K62">
+        <v>-0.005613098727508516</v>
+      </c>
+      <c r="L62">
+        <v>-0.06527158230422056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.0600915192535209</v>
+        <v>0.05072118675330628</v>
       </c>
       <c r="C63">
-        <v>0.04009094908080565</v>
+        <v>-0.02989106218982707</v>
       </c>
       <c r="D63">
-        <v>0.029167680978111</v>
+        <v>-0.00435145374822222</v>
       </c>
       <c r="E63">
-        <v>-0.01591984396854455</v>
+        <v>-0.0007518625696648026</v>
       </c>
       <c r="F63">
-        <v>-0.009276363080114586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03802164559999464</v>
+      </c>
+      <c r="G63">
+        <v>-0.04820779602543636</v>
+      </c>
+      <c r="H63">
+        <v>-0.01397442854616501</v>
+      </c>
+      <c r="I63">
+        <v>-0.05498195333487444</v>
+      </c>
+      <c r="J63">
+        <v>0.03852479216202634</v>
+      </c>
+      <c r="K63">
+        <v>-0.009845356679258408</v>
+      </c>
+      <c r="L63">
+        <v>0.02257267868331912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1009616843962789</v>
+        <v>0.1036969992670557</v>
       </c>
       <c r="C64">
-        <v>-0.006910285396751369</v>
+        <v>-0.02653670734261038</v>
       </c>
       <c r="D64">
-        <v>0.05264871307095121</v>
+        <v>0.02932670957477169</v>
       </c>
       <c r="E64">
-        <v>-0.03879930050349076</v>
+        <v>0.03819617603816088</v>
       </c>
       <c r="F64">
-        <v>-0.05474633910661839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0829335945076253</v>
+      </c>
+      <c r="G64">
+        <v>-0.03864638549102366</v>
+      </c>
+      <c r="H64">
+        <v>0.01818456370726406</v>
+      </c>
+      <c r="I64">
+        <v>-0.02646280686447562</v>
+      </c>
+      <c r="J64">
+        <v>-0.03192946006430668</v>
+      </c>
+      <c r="K64">
+        <v>0.002468322049024785</v>
+      </c>
+      <c r="L64">
+        <v>0.05743118156110096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1134498258177027</v>
+        <v>0.1283717235966204</v>
       </c>
       <c r="C65">
-        <v>0.02521456763238333</v>
+        <v>-0.02408325039463143</v>
       </c>
       <c r="D65">
-        <v>0.02799150557525851</v>
+        <v>0.04227677543515701</v>
       </c>
       <c r="E65">
-        <v>-0.04710697110371863</v>
+        <v>-0.008761339597263409</v>
       </c>
       <c r="F65">
-        <v>-0.09153308686974986</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.06743967155022394</v>
+      </c>
+      <c r="G65">
+        <v>-0.06749577110303961</v>
+      </c>
+      <c r="H65">
+        <v>0.1858073324507004</v>
+      </c>
+      <c r="I65">
+        <v>-0.1000207385418988</v>
+      </c>
+      <c r="J65">
+        <v>0.6549957864314515</v>
+      </c>
+      <c r="K65">
+        <v>0.1673196340322127</v>
+      </c>
+      <c r="L65">
+        <v>-0.09112196513036355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1557978003704964</v>
+        <v>0.1341415154494857</v>
       </c>
       <c r="C66">
-        <v>0.09020400146239679</v>
+        <v>-0.110696626246369</v>
       </c>
       <c r="D66">
-        <v>0.1090912542857609</v>
+        <v>0.02591141103753175</v>
       </c>
       <c r="E66">
-        <v>-0.02489214893045185</v>
+        <v>0.004303531372336887</v>
       </c>
       <c r="F66">
-        <v>0.02759051160492781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07440650420921788</v>
+      </c>
+      <c r="G66">
+        <v>-0.08324616887760666</v>
+      </c>
+      <c r="H66">
+        <v>-0.01595803243767312</v>
+      </c>
+      <c r="I66">
+        <v>-0.09965423687265242</v>
+      </c>
+      <c r="J66">
+        <v>-0.2226196227586358</v>
+      </c>
+      <c r="K66">
+        <v>-0.0412402822873102</v>
+      </c>
+      <c r="L66">
+        <v>0.1036957789073949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.092185336908918</v>
+        <v>0.09432955048736624</v>
       </c>
       <c r="C67">
-        <v>0.03076293187563492</v>
+        <v>-0.05627117576269751</v>
       </c>
       <c r="D67">
-        <v>0.0007180041474948407</v>
+        <v>0.006368230545554127</v>
       </c>
       <c r="E67">
-        <v>-0.01091410057380123</v>
+        <v>0.03801427980719217</v>
       </c>
       <c r="F67">
-        <v>-0.02289145092596327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01109539978827872</v>
+      </c>
+      <c r="G67">
+        <v>0.0009898953953077936</v>
+      </c>
+      <c r="H67">
+        <v>-0.002302715462214078</v>
+      </c>
+      <c r="I67">
+        <v>0.12678556943363</v>
+      </c>
+      <c r="J67">
+        <v>-0.06135770450948031</v>
+      </c>
+      <c r="K67">
+        <v>-0.07987214062883603</v>
+      </c>
+      <c r="L67">
+        <v>0.01045044542103865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06250728943004655</v>
+        <v>0.0989736033432041</v>
       </c>
       <c r="C68">
-        <v>-0.2560534932465403</v>
+        <v>0.2744298398938623</v>
       </c>
       <c r="D68">
-        <v>-0.06707373029056528</v>
+        <v>-0.0456631595294425</v>
       </c>
       <c r="E68">
-        <v>-0.03786392534239164</v>
+        <v>0.03035407350045365</v>
       </c>
       <c r="F68">
-        <v>-0.04114739843688155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.00432362339019882</v>
+      </c>
+      <c r="G68">
+        <v>0.005753976998496416</v>
+      </c>
+      <c r="H68">
+        <v>-0.02792092422179773</v>
+      </c>
+      <c r="I68">
+        <v>-0.01714817211068113</v>
+      </c>
+      <c r="J68">
+        <v>0.06867969285201465</v>
+      </c>
+      <c r="K68">
+        <v>0.0163386385304912</v>
+      </c>
+      <c r="L68">
+        <v>0.03417067354118408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.06694527856259691</v>
+        <v>0.05518119374250054</v>
       </c>
       <c r="C69">
-        <v>0.02091401714059857</v>
+        <v>-0.02647806997539014</v>
       </c>
       <c r="D69">
-        <v>0.003944500640709434</v>
+        <v>-0.01517030329161054</v>
       </c>
       <c r="E69">
-        <v>-0.01498446044471703</v>
+        <v>-0.00248725465943938</v>
       </c>
       <c r="F69">
-        <v>-0.01005956695879135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0007785378434032285</v>
+      </c>
+      <c r="G69">
+        <v>-0.0293499438685512</v>
+      </c>
+      <c r="H69">
+        <v>-0.04419058196322654</v>
+      </c>
+      <c r="I69">
+        <v>-0.00239166766038117</v>
+      </c>
+      <c r="J69">
+        <v>-0.007161983993428628</v>
+      </c>
+      <c r="K69">
+        <v>0.01595105208854508</v>
+      </c>
+      <c r="L69">
+        <v>0.006089559860249646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.01862462879097099</v>
+        <v>0.04171572321265676</v>
       </c>
       <c r="C70">
-        <v>-0.007272496855670166</v>
+        <v>-0.01868584378975755</v>
       </c>
       <c r="D70">
-        <v>-0.002721005416372861</v>
+        <v>0.03104433379762156</v>
       </c>
       <c r="E70">
-        <v>0.01274918778282202</v>
+        <v>-0.0177724279775148</v>
       </c>
       <c r="F70">
-        <v>-0.001740343501858518</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.0383413472532671</v>
+      </c>
+      <c r="G70">
+        <v>-0.0248326301873598</v>
+      </c>
+      <c r="H70">
+        <v>0.01099226960142408</v>
+      </c>
+      <c r="I70">
+        <v>0.03679937208466764</v>
+      </c>
+      <c r="J70">
+        <v>-0.005183877073814588</v>
+      </c>
+      <c r="K70">
+        <v>-0.1220517204012934</v>
+      </c>
+      <c r="L70">
+        <v>0.06911391670869262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.06517605142708097</v>
+        <v>0.111072074075052</v>
       </c>
       <c r="C71">
-        <v>-0.2718244229202385</v>
+        <v>0.2875898234885238</v>
       </c>
       <c r="D71">
-        <v>-0.06300031506002692</v>
+        <v>-0.02639791215523391</v>
       </c>
       <c r="E71">
-        <v>-0.06964453243190551</v>
+        <v>0.04719384522315063</v>
       </c>
       <c r="F71">
-        <v>-0.02510428692619344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.01067323928882552</v>
+      </c>
+      <c r="G71">
+        <v>-0.002465574378173669</v>
+      </c>
+      <c r="H71">
+        <v>-0.01382570937200818</v>
+      </c>
+      <c r="I71">
+        <v>-0.01514319418821733</v>
+      </c>
+      <c r="J71">
+        <v>0.01779186022035236</v>
+      </c>
+      <c r="K71">
+        <v>-0.005018053798992631</v>
+      </c>
+      <c r="L71">
+        <v>-0.005952926086730588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.141268432878248</v>
+        <v>0.1337190496857963</v>
       </c>
       <c r="C72">
-        <v>-0.04519694410171129</v>
+        <v>-0.009576059610176322</v>
       </c>
       <c r="D72">
-        <v>0.05940082923768891</v>
+        <v>-0.03540553594342314</v>
       </c>
       <c r="E72">
-        <v>0.2425897808447942</v>
+        <v>-0.176634648045813</v>
       </c>
       <c r="F72">
-        <v>-0.01776723451198085</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.05486249205827567</v>
+      </c>
+      <c r="G72">
+        <v>-0.1012253636178959</v>
+      </c>
+      <c r="H72">
+        <v>-0.01340697607690872</v>
+      </c>
+      <c r="I72">
+        <v>0.04806164119158828</v>
+      </c>
+      <c r="J72">
+        <v>0.09537140324151144</v>
+      </c>
+      <c r="K72">
+        <v>0.08029040073088861</v>
+      </c>
+      <c r="L72">
+        <v>-0.134602630656083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2497544487144448</v>
+        <v>0.2389276017093455</v>
       </c>
       <c r="C73">
-        <v>0.06691091033383316</v>
+        <v>-0.1171231808200832</v>
       </c>
       <c r="D73">
-        <v>0.1437819951378811</v>
+        <v>0.2560239810715303</v>
       </c>
       <c r="E73">
-        <v>-0.1048048513013715</v>
+        <v>-0.01015400642421055</v>
       </c>
       <c r="F73">
-        <v>0.1067868194984232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1513836063154203</v>
+      </c>
+      <c r="G73">
+        <v>0.2904570388508261</v>
+      </c>
+      <c r="H73">
+        <v>0.2971366512167852</v>
+      </c>
+      <c r="I73">
+        <v>0.09600840556393939</v>
+      </c>
+      <c r="J73">
+        <v>-0.2604774127667834</v>
+      </c>
+      <c r="K73">
+        <v>0.4203156122975869</v>
+      </c>
+      <c r="L73">
+        <v>-0.1651624615943179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08400375164453658</v>
+        <v>0.08935557417624346</v>
       </c>
       <c r="C74">
-        <v>-0.01633534388925005</v>
+        <v>-0.04340700364041668</v>
       </c>
       <c r="D74">
-        <v>0.05916418656983295</v>
+        <v>0.03967061600615991</v>
       </c>
       <c r="E74">
-        <v>-0.009073146557569961</v>
+        <v>-0.01872524169561731</v>
       </c>
       <c r="F74">
-        <v>-0.005189178836639327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03466463021557963</v>
+      </c>
+      <c r="G74">
+        <v>0.03263238461632831</v>
+      </c>
+      <c r="H74">
+        <v>-0.1389805693399587</v>
+      </c>
+      <c r="I74">
+        <v>0.002757930424099697</v>
+      </c>
+      <c r="J74">
+        <v>-0.02035018825129715</v>
+      </c>
+      <c r="K74">
+        <v>0.0659169702318257</v>
+      </c>
+      <c r="L74">
+        <v>-0.02611061495179946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1180598736649757</v>
+        <v>0.09953501077808924</v>
       </c>
       <c r="C75">
-        <v>-0.0006572812372637303</v>
+        <v>-0.03977487802037141</v>
       </c>
       <c r="D75">
-        <v>-0.00285812504453532</v>
+        <v>-0.005440476790691658</v>
       </c>
       <c r="E75">
-        <v>-0.02250195571356766</v>
+        <v>-0.01083112339415152</v>
       </c>
       <c r="F75">
-        <v>0.03544876145042713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04070520170143471</v>
+      </c>
+      <c r="G75">
+        <v>-0.001907937258332097</v>
+      </c>
+      <c r="H75">
+        <v>-0.1392843967053598</v>
+      </c>
+      <c r="I75">
+        <v>0.03915701836789059</v>
+      </c>
+      <c r="J75">
+        <v>0.03563365707444941</v>
+      </c>
+      <c r="K75">
+        <v>0.02457758625087393</v>
+      </c>
+      <c r="L75">
+        <v>-0.0104360683830179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1334577487779783</v>
+        <v>0.1152770709123129</v>
       </c>
       <c r="C76">
-        <v>-0.009073210973854837</v>
+        <v>-0.05723471279717368</v>
       </c>
       <c r="D76">
-        <v>0.06950109712633508</v>
+        <v>0.05502086985400216</v>
       </c>
       <c r="E76">
-        <v>-0.01752711680866803</v>
+        <v>-0.007198391959288316</v>
       </c>
       <c r="F76">
-        <v>0.01961893722023899</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02562614890426904</v>
+      </c>
+      <c r="G76">
+        <v>0.02120207324181898</v>
+      </c>
+      <c r="H76">
+        <v>-0.2325955184048795</v>
+      </c>
+      <c r="I76">
+        <v>0.06102282679666099</v>
+      </c>
+      <c r="J76">
+        <v>0.02825062991863653</v>
+      </c>
+      <c r="K76">
+        <v>0.037426705750453</v>
+      </c>
+      <c r="L76">
+        <v>-0.02029384958113397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.119210176762912</v>
+        <v>0.08450129270269727</v>
       </c>
       <c r="C77">
-        <v>0.05326329375685841</v>
+        <v>-0.03240055647963023</v>
       </c>
       <c r="D77">
-        <v>-0.06028541743326993</v>
+        <v>-0.09211580943041342</v>
       </c>
       <c r="E77">
-        <v>-0.007031920539447073</v>
+        <v>0.1099946627427393</v>
       </c>
       <c r="F77">
-        <v>-0.2645612837371102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0260234497672998</v>
+      </c>
+      <c r="G77">
+        <v>-0.6622791679854505</v>
+      </c>
+      <c r="H77">
+        <v>0.2877999316715938</v>
+      </c>
+      <c r="I77">
+        <v>0.5041317005580009</v>
+      </c>
+      <c r="J77">
+        <v>-0.1092710241173711</v>
+      </c>
+      <c r="K77">
+        <v>0.07639212694204865</v>
+      </c>
+      <c r="L77">
+        <v>-0.007633129114910839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1260711770836694</v>
+        <v>0.160604123308311</v>
       </c>
       <c r="C78">
-        <v>0.06887105236683866</v>
+        <v>-0.08191345399145419</v>
       </c>
       <c r="D78">
-        <v>0.05860184955666861</v>
+        <v>-0.03770229996711037</v>
       </c>
       <c r="E78">
-        <v>-0.02502005416558737</v>
+        <v>0.1149082400560231</v>
       </c>
       <c r="F78">
-        <v>-0.09909204536687392</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1425805174830996</v>
+      </c>
+      <c r="G78">
+        <v>0.01054750067108</v>
+      </c>
+      <c r="H78">
+        <v>0.1151452770158568</v>
+      </c>
+      <c r="I78">
+        <v>-0.154413698972555</v>
+      </c>
+      <c r="J78">
+        <v>-0.04033399387615384</v>
+      </c>
+      <c r="K78">
+        <v>-0.2568130234845312</v>
+      </c>
+      <c r="L78">
+        <v>-0.4215793474342815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1388292912645996</v>
+        <v>0.1372032979576162</v>
       </c>
       <c r="C79">
-        <v>0.01137690916612324</v>
+        <v>-0.05248883266065014</v>
       </c>
       <c r="D79">
-        <v>0.07092901379268171</v>
+        <v>0.0433568555249399</v>
       </c>
       <c r="E79">
-        <v>-0.005736131951795887</v>
+        <v>-0.01112175095228246</v>
       </c>
       <c r="F79">
-        <v>0.06811040479399463</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.03291581459076552</v>
+      </c>
+      <c r="G79">
+        <v>-0.01884012977256885</v>
+      </c>
+      <c r="H79">
+        <v>-0.1857433342966446</v>
+      </c>
+      <c r="I79">
+        <v>0.07695374536710067</v>
+      </c>
+      <c r="J79">
+        <v>0.05031523954228537</v>
+      </c>
+      <c r="K79">
+        <v>0.01438589833954724</v>
+      </c>
+      <c r="L79">
+        <v>-0.03966420806493087</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03874922943365847</v>
+        <v>0.04406647569918488</v>
       </c>
       <c r="C80">
-        <v>0.02263438741989691</v>
+        <v>-0.01661000223324507</v>
       </c>
       <c r="D80">
-        <v>0.02032874921145197</v>
+        <v>0.05906673920867653</v>
       </c>
       <c r="E80">
-        <v>-0.006666120979891962</v>
+        <v>-0.02167027482345371</v>
       </c>
       <c r="F80">
-        <v>-0.01852309195678039</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.005539581475933255</v>
+      </c>
+      <c r="G80">
+        <v>-0.01681314787404696</v>
+      </c>
+      <c r="H80">
+        <v>0.02076621758776012</v>
+      </c>
+      <c r="I80">
+        <v>-0.09631281481993322</v>
+      </c>
+      <c r="J80">
+        <v>-0.01777573031695967</v>
+      </c>
+      <c r="K80">
+        <v>-0.02895870910237034</v>
+      </c>
+      <c r="L80">
+        <v>0.002761539342974944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1345409957411139</v>
+        <v>0.1312259566751715</v>
       </c>
       <c r="C81">
-        <v>0.01098914252670308</v>
+        <v>-0.04032707495880955</v>
       </c>
       <c r="D81">
-        <v>0.07627899647820283</v>
+        <v>0.03520885848867587</v>
       </c>
       <c r="E81">
-        <v>-0.02918423559004184</v>
+        <v>-0.006836264116400857</v>
       </c>
       <c r="F81">
-        <v>0.02973141141702636</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.04284681534318742</v>
+      </c>
+      <c r="G81">
+        <v>-0.007017709356296279</v>
+      </c>
+      <c r="H81">
+        <v>-0.1642038894125248</v>
+      </c>
+      <c r="I81">
+        <v>0.02289011594804006</v>
+      </c>
+      <c r="J81">
+        <v>-0.02815762682080785</v>
+      </c>
+      <c r="K81">
+        <v>0.03052713384681481</v>
+      </c>
+      <c r="L81">
+        <v>0.06253146677848757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1166584105908803</v>
+        <v>0.1191921914178105</v>
       </c>
       <c r="C82">
-        <v>0.02080864783355188</v>
+        <v>-0.04379655179871526</v>
       </c>
       <c r="D82">
-        <v>0.03498204504079921</v>
+        <v>0.03891849844690889</v>
       </c>
       <c r="E82">
-        <v>-0.03182169452685028</v>
+        <v>-0.0203601308890025</v>
       </c>
       <c r="F82">
-        <v>0.09512148625629535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.008448243649437697</v>
+      </c>
+      <c r="G82">
+        <v>0.01072559745422496</v>
+      </c>
+      <c r="H82">
+        <v>-0.271206705706672</v>
+      </c>
+      <c r="I82">
+        <v>0.05769050048342851</v>
+      </c>
+      <c r="J82">
+        <v>-0.03045557380365839</v>
+      </c>
+      <c r="K82">
+        <v>-0.01276263640440437</v>
+      </c>
+      <c r="L82">
+        <v>-0.006140686621864616</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05839648138409358</v>
+        <v>0.07728951372489408</v>
       </c>
       <c r="C83">
-        <v>0.03423894651712236</v>
+        <v>-0.04481568632183651</v>
       </c>
       <c r="D83">
-        <v>-0.1035522943551097</v>
+        <v>-0.008593863989168463</v>
       </c>
       <c r="E83">
-        <v>-0.01367281448617378</v>
+        <v>0.01891247636768949</v>
       </c>
       <c r="F83">
-        <v>0.07870689069501792</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.1207995285171468</v>
+      </c>
+      <c r="G83">
+        <v>-0.01730924210719862</v>
+      </c>
+      <c r="H83">
+        <v>0.03485541723947079</v>
+      </c>
+      <c r="I83">
+        <v>-0.06425699025950345</v>
+      </c>
+      <c r="J83">
+        <v>-0.01929093705078184</v>
+      </c>
+      <c r="K83">
+        <v>-0.07335632986502202</v>
+      </c>
+      <c r="L83">
+        <v>-0.01071095395049526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05361649037988263</v>
+        <v>0.0408155219354654</v>
       </c>
       <c r="C84">
-        <v>0.01114459597351254</v>
+        <v>0.01971336848197135</v>
       </c>
       <c r="D84">
-        <v>0.01952031450172183</v>
+        <v>-0.03790998468539661</v>
       </c>
       <c r="E84">
-        <v>0.01503206372426398</v>
+        <v>-0.01112967979498384</v>
       </c>
       <c r="F84">
-        <v>-0.001331857523966768</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.01312036088108088</v>
+      </c>
+      <c r="G84">
+        <v>0.09189758742143876</v>
+      </c>
+      <c r="H84">
+        <v>0.1470532736787564</v>
+      </c>
+      <c r="I84">
+        <v>-0.1608036592951219</v>
+      </c>
+      <c r="J84">
+        <v>-0.06893329901057439</v>
+      </c>
+      <c r="K84">
+        <v>-0.358531789386446</v>
+      </c>
+      <c r="L84">
+        <v>-0.2386825100305825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1027682938024804</v>
+        <v>0.1149936009064159</v>
       </c>
       <c r="C85">
-        <v>0.03023205577042153</v>
+        <v>-0.0418788091143095</v>
       </c>
       <c r="D85">
-        <v>0.0376915972210405</v>
+        <v>0.04409109142819296</v>
       </c>
       <c r="E85">
-        <v>-0.05592787616228734</v>
+        <v>0.03007267702262261</v>
       </c>
       <c r="F85">
-        <v>0.01870010726050176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01715343576330359</v>
+      </c>
+      <c r="G85">
+        <v>-0.01366956317528526</v>
+      </c>
+      <c r="H85">
+        <v>-0.1929200487383426</v>
+      </c>
+      <c r="I85">
+        <v>0.04932848200454298</v>
+      </c>
+      <c r="J85">
+        <v>0.04664912820758929</v>
+      </c>
+      <c r="K85">
+        <v>0.01070647980544087</v>
+      </c>
+      <c r="L85">
+        <v>-0.03669446252399645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06782177375607414</v>
+        <v>0.07325243005141291</v>
       </c>
       <c r="C86">
-        <v>0.07579807451712543</v>
+        <v>-0.02416122098891159</v>
       </c>
       <c r="D86">
-        <v>-0.001304305625597307</v>
+        <v>-0.02592467508086342</v>
       </c>
       <c r="E86">
-        <v>-0.008061583601483882</v>
+        <v>0.0406686745339842</v>
       </c>
       <c r="F86">
-        <v>-0.02511881444852158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.0003389963086290778</v>
+      </c>
+      <c r="G86">
+        <v>0.01437130449007429</v>
+      </c>
+      <c r="H86">
+        <v>0.08494225474482821</v>
+      </c>
+      <c r="I86">
+        <v>-0.05495785066564816</v>
+      </c>
+      <c r="J86">
+        <v>-0.05287163026648079</v>
+      </c>
+      <c r="K86">
+        <v>-0.3734395300193659</v>
+      </c>
+      <c r="L86">
+        <v>-0.2745330323564345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1098818650218504</v>
+        <v>0.1175420213234434</v>
       </c>
       <c r="C87">
-        <v>0.05448099308748975</v>
+        <v>-0.0625115097289838</v>
       </c>
       <c r="D87">
-        <v>0.056510968668217</v>
+        <v>-0.01231185529494925</v>
       </c>
       <c r="E87">
-        <v>-0.02656276965138882</v>
+        <v>0.03484345652410987</v>
       </c>
       <c r="F87">
-        <v>-0.1606142942633455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.111817853579235</v>
+      </c>
+      <c r="G87">
+        <v>-0.1614919206709888</v>
+      </c>
+      <c r="H87">
+        <v>0.1430729428209467</v>
+      </c>
+      <c r="I87">
+        <v>0.08140861184849013</v>
+      </c>
+      <c r="J87">
+        <v>-0.036784274483327</v>
+      </c>
+      <c r="K87">
+        <v>-0.02269960277901189</v>
+      </c>
+      <c r="L87">
+        <v>0.03847289084036035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06017602945254624</v>
+        <v>0.06485396476787442</v>
       </c>
       <c r="C88">
-        <v>0.02783417658623337</v>
+        <v>-0.04705213289821657</v>
       </c>
       <c r="D88">
-        <v>0.02920471575623431</v>
+        <v>0.0374781616431298</v>
       </c>
       <c r="E88">
-        <v>-0.01692278252691569</v>
+        <v>0.002926642809599827</v>
       </c>
       <c r="F88">
-        <v>-0.01122616360299119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02065487613980092</v>
+      </c>
+      <c r="G88">
+        <v>-0.02109210681314211</v>
+      </c>
+      <c r="H88">
+        <v>-0.01707829551767543</v>
+      </c>
+      <c r="I88">
+        <v>-0.05119145947781824</v>
+      </c>
+      <c r="J88">
+        <v>-0.03231032736140278</v>
+      </c>
+      <c r="K88">
+        <v>-0.00886531885448239</v>
+      </c>
+      <c r="L88">
+        <v>0.02954903114056761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1019168230731538</v>
+        <v>0.1807993578627653</v>
       </c>
       <c r="C89">
-        <v>-0.3210791509514601</v>
+        <v>0.3733418889921866</v>
       </c>
       <c r="D89">
-        <v>-0.1023727166321585</v>
+        <v>-0.007654375957262023</v>
       </c>
       <c r="E89">
-        <v>-0.1081397064905519</v>
+        <v>0.09702757324321117</v>
       </c>
       <c r="F89">
-        <v>-0.05709739559863405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02969973707061424</v>
+      </c>
+      <c r="G89">
+        <v>0.006188588452048111</v>
+      </c>
+      <c r="H89">
+        <v>0.003044165883032758</v>
+      </c>
+      <c r="I89">
+        <v>-0.06475047465700909</v>
+      </c>
+      <c r="J89">
+        <v>-0.08727149385778328</v>
+      </c>
+      <c r="K89">
+        <v>0.04556199870564559</v>
+      </c>
+      <c r="L89">
+        <v>0.03920389321421801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.08493514789964769</v>
+        <v>0.1239177733621758</v>
       </c>
       <c r="C90">
-        <v>-0.2751448467684063</v>
+        <v>0.2755002068394691</v>
       </c>
       <c r="D90">
-        <v>-0.08056651054678206</v>
+        <v>-0.02442131445477536</v>
       </c>
       <c r="E90">
-        <v>-0.04987915564732699</v>
+        <v>0.03469227741522955</v>
       </c>
       <c r="F90">
-        <v>-0.05814911298630211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01227543265283946</v>
+      </c>
+      <c r="G90">
+        <v>-0.02213265414640686</v>
+      </c>
+      <c r="H90">
+        <v>0.03776993377120098</v>
+      </c>
+      <c r="I90">
+        <v>-0.0343411630417923</v>
+      </c>
+      <c r="J90">
+        <v>-0.03706952518056474</v>
+      </c>
+      <c r="K90">
+        <v>0.02468066903531064</v>
+      </c>
+      <c r="L90">
+        <v>0.02737035235011574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.1004712040266082</v>
+        <v>0.08525115584991171</v>
       </c>
       <c r="C91">
-        <v>0.01332293347726994</v>
+        <v>-0.04683453000081619</v>
       </c>
       <c r="D91">
-        <v>0.01341018450007975</v>
+        <v>0.002329172660788648</v>
       </c>
       <c r="E91">
-        <v>-0.011127642336816</v>
+        <v>-0.001055068744946852</v>
       </c>
       <c r="F91">
-        <v>0.003612518255396385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.01920855166705134</v>
+      </c>
+      <c r="G91">
+        <v>0.01330379456225277</v>
+      </c>
+      <c r="H91">
+        <v>-0.1009060405014813</v>
+      </c>
+      <c r="I91">
+        <v>0.03014680496333725</v>
+      </c>
+      <c r="J91">
+        <v>0.01586305673475921</v>
+      </c>
+      <c r="K91">
+        <v>0.04404170899440843</v>
+      </c>
+      <c r="L91">
+        <v>-0.003190046680012262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.07462507056904996</v>
+        <v>0.1284437525285655</v>
       </c>
       <c r="C92">
-        <v>-0.334505114431308</v>
+        <v>0.3242606921204748</v>
       </c>
       <c r="D92">
-        <v>-0.05874056403030129</v>
+        <v>-0.01937406762132548</v>
       </c>
       <c r="E92">
-        <v>-0.08606632320379075</v>
+        <v>0.05318222315294598</v>
       </c>
       <c r="F92">
-        <v>-0.01692785032613548</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01691743585278834</v>
+      </c>
+      <c r="G92">
+        <v>0.01995354090082976</v>
+      </c>
+      <c r="H92">
+        <v>-0.03634272496360457</v>
+      </c>
+      <c r="I92">
+        <v>-0.03089359113109624</v>
+      </c>
+      <c r="J92">
+        <v>-0.02842778216734487</v>
+      </c>
+      <c r="K92">
+        <v>0.0126280033982546</v>
+      </c>
+      <c r="L92">
+        <v>-0.001971231400473151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.07635461421753215</v>
+        <v>0.1317862870595</v>
       </c>
       <c r="C93">
-        <v>-0.2770256080693148</v>
+        <v>0.3064552345485577</v>
       </c>
       <c r="D93">
-        <v>-0.04255079484913216</v>
+        <v>-0.006385115873650394</v>
       </c>
       <c r="E93">
-        <v>-0.04818825199515948</v>
+        <v>0.02125126278734875</v>
       </c>
       <c r="F93">
-        <v>-0.03291243587192015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.002832502139500586</v>
+      </c>
+      <c r="G93">
+        <v>0.00519091063238895</v>
+      </c>
+      <c r="H93">
+        <v>0.01389693264348051</v>
+      </c>
+      <c r="I93">
+        <v>0.0007765106991449572</v>
+      </c>
+      <c r="J93">
+        <v>0.01038987917351352</v>
+      </c>
+      <c r="K93">
+        <v>-0.03502153410023844</v>
+      </c>
+      <c r="L93">
+        <v>0.02279114926875368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1131552886614587</v>
+        <v>0.1135751122983281</v>
       </c>
       <c r="C94">
-        <v>0.05188637609325422</v>
+        <v>-0.06897507878536396</v>
       </c>
       <c r="D94">
-        <v>0.03042669964510464</v>
+        <v>0.01309871285859548</v>
       </c>
       <c r="E94">
-        <v>-0.03245124352105727</v>
+        <v>0.02287959934359136</v>
       </c>
       <c r="F94">
-        <v>0.008213127918560917</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.01189743063082196</v>
+      </c>
+      <c r="G94">
+        <v>0.04391171576674757</v>
+      </c>
+      <c r="H94">
+        <v>-0.1320873503339363</v>
+      </c>
+      <c r="I94">
+        <v>0.01169024887789313</v>
+      </c>
+      <c r="J94">
+        <v>0.02620180024624169</v>
+      </c>
+      <c r="K94">
+        <v>0.03744951178769576</v>
+      </c>
+      <c r="L94">
+        <v>-0.004767523266384016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1200443896718038</v>
+        <v>0.136285645556463</v>
       </c>
       <c r="C95">
-        <v>0.09064571759872991</v>
+        <v>-0.06457189060596594</v>
       </c>
       <c r="D95">
-        <v>0.09599689284580699</v>
+        <v>0.02442864264896967</v>
       </c>
       <c r="E95">
-        <v>-0.07771814444771323</v>
+        <v>0.06745569111867537</v>
       </c>
       <c r="F95">
-        <v>0.009554203096573318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07580950566567535</v>
+      </c>
+      <c r="G95">
+        <v>-0.01493632852307401</v>
+      </c>
+      <c r="H95">
+        <v>0.1736375428760964</v>
+      </c>
+      <c r="I95">
+        <v>-0.0840401143562555</v>
+      </c>
+      <c r="J95">
+        <v>-0.02096210899290753</v>
+      </c>
+      <c r="K95">
+        <v>-0.05469473208279335</v>
+      </c>
+      <c r="L95">
+        <v>-0.0681754638849954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2707820651475941</v>
+        <v>0.1882239135040811</v>
       </c>
       <c r="C97">
-        <v>-0.1341078719610354</v>
+        <v>0.01212077749209462</v>
       </c>
       <c r="D97">
-        <v>0.0362967096536071</v>
+        <v>-0.4260838417357624</v>
       </c>
       <c r="E97">
-        <v>0.8828505924728978</v>
+        <v>-0.8309928749808418</v>
       </c>
       <c r="F97">
-        <v>-0.01414844813218829</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.09063391013198906</v>
+      </c>
+      <c r="G97">
+        <v>-0.01964481603589024</v>
+      </c>
+      <c r="H97">
+        <v>0.07547069615982895</v>
+      </c>
+      <c r="I97">
+        <v>-0.05191650234449505</v>
+      </c>
+      <c r="J97">
+        <v>-0.07868277317672095</v>
+      </c>
+      <c r="K97">
+        <v>0.03710343735707565</v>
+      </c>
+      <c r="L97">
+        <v>-0.002503780993377611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.2937614256137361</v>
+        <v>0.2804790061639792</v>
       </c>
       <c r="C98">
-        <v>0.08462239815860091</v>
+        <v>-0.1169099444444516</v>
       </c>
       <c r="D98">
-        <v>-0.004582807074759977</v>
+        <v>0.1486053186550507</v>
       </c>
       <c r="E98">
-        <v>-0.1088192770430382</v>
+        <v>-0.09178930671732942</v>
       </c>
       <c r="F98">
-        <v>0.4821351302486778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.3073538203774236</v>
+      </c>
+      <c r="G98">
+        <v>0.250010152558423</v>
+      </c>
+      <c r="H98">
+        <v>0.21997349042757</v>
+      </c>
+      <c r="I98">
+        <v>0.1911234381323154</v>
+      </c>
+      <c r="J98">
+        <v>0.1412490436653227</v>
+      </c>
+      <c r="K98">
+        <v>-0.3873429397741429</v>
+      </c>
+      <c r="L98">
+        <v>0.481127569889735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2404430431623346</v>
+        <v>0.1436098254214932</v>
       </c>
       <c r="C99">
-        <v>0.2338434589851298</v>
+        <v>-0.1268306597797129</v>
       </c>
       <c r="D99">
-        <v>-0.8226367061476144</v>
+        <v>-0.3582888238974828</v>
       </c>
       <c r="E99">
-        <v>0.03616647905566076</v>
+        <v>0.127895012322302</v>
       </c>
       <c r="F99">
-        <v>0.2250431769445324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.7548593837635325</v>
+      </c>
+      <c r="G99">
+        <v>-0.1742406124711016</v>
+      </c>
+      <c r="H99">
+        <v>-0.1396686216507234</v>
+      </c>
+      <c r="I99">
+        <v>-0.05213452755138568</v>
+      </c>
+      <c r="J99">
+        <v>0.02976914644943887</v>
+      </c>
+      <c r="K99">
+        <v>-0.03391521866108566</v>
+      </c>
+      <c r="L99">
+        <v>-0.156560955934583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05004660870917563</v>
+        <v>0.04853640722570726</v>
       </c>
       <c r="C101">
-        <v>-0.001323706471659968</v>
+        <v>-0.01670048510684878</v>
       </c>
       <c r="D101">
-        <v>0.02598206256451098</v>
+        <v>0.009486869710693201</v>
       </c>
       <c r="E101">
-        <v>-0.01551793495213036</v>
+        <v>0.02144520368689523</v>
       </c>
       <c r="F101">
-        <v>-0.03827472995597304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04473704827771584</v>
+      </c>
+      <c r="G101">
+        <v>-0.02877160106036003</v>
+      </c>
+      <c r="H101">
+        <v>-0.04487369490424</v>
+      </c>
+      <c r="I101">
+        <v>-0.04558446626229508</v>
+      </c>
+      <c r="J101">
+        <v>0.01707560201286467</v>
+      </c>
+      <c r="K101">
+        <v>-0.02773016780967495</v>
+      </c>
+      <c r="L101">
+        <v>0.01091929470014697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
